--- a/Doc/1.SA/現行/オブジェクト/現行フォーム一覧.xlsx
+++ b/Doc/1.SA/現行/オブジェクト/現行フォーム一覧.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zaimuVB\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\zaimu\Doc\1.SA\現行\オブジェクト\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2400" windowWidth="10710" windowHeight="5415" tabRatio="740"/>
+    <workbookView xWindow="0" yWindow="3000" windowWidth="10710" windowHeight="5415" tabRatio="740"/>
   </bookViews>
   <sheets>
     <sheet name="業務予測システム" sheetId="2" r:id="rId1"/>
@@ -1374,7 +1374,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -2352,9 +2352,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.625" customWidth="1"/>
     <col min="2" max="2" width="4.375" bestFit="1" customWidth="1"/>
@@ -2364,14 +2364,14 @@
     <col min="6" max="6" width="11.5" style="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>業務予測システム</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1"/>
-    <row r="3" spans="1:6" ht="15" thickBot="1">
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>25</v>
       </c>
@@ -2386,7 +2386,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" thickTop="1">
+    <row r="4" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <f>ROW()-3</f>
         <v>1</v>
@@ -2404,7 +2404,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="15">
         <f t="shared" ref="B5:B55" si="0">ROW()-3</f>
         <v>2</v>
@@ -2418,7 +2418,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="15">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2432,7 +2432,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="15">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2446,7 +2446,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="15">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2460,7 +2460,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2474,7 +2474,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="15">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2488,7 +2488,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="15">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2502,7 +2502,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="15">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2516,7 +2516,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="15">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2530,7 +2530,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="15">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2544,7 +2544,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="15">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2556,7 +2556,7 @@
       </c>
       <c r="F15" s="19"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" s="15">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2568,7 +2568,7 @@
       </c>
       <c r="F16" s="19"/>
     </row>
-    <row r="17" spans="2:6">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="15">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2580,7 +2580,7 @@
       </c>
       <c r="F17" s="19"/>
     </row>
-    <row r="18" spans="2:6">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="15">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2594,7 +2594,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="2:6">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="15">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2608,7 +2608,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="2:6">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="15">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2622,7 +2622,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="2:6">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="15">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2636,7 +2636,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="2:6">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="15">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2650,7 +2650,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="2:6">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2664,7 +2664,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="2:6">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="27">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2678,7 +2678,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="2:6">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="27">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2692,7 +2692,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="2:6">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="27">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -2706,7 +2706,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="2:6">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="27">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2720,7 +2720,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="2:6">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="27">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2734,7 +2734,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="2:6">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="27">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2748,7 +2748,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="2:6">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="27">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -2762,7 +2762,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="2:6">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="27">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -2776,7 +2776,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="2:6">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="27">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -2790,7 +2790,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="2:6">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="27">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -2804,7 +2804,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="2:6">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="27">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -2818,7 +2818,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="2:6">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="27">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -2830,7 +2830,7 @@
       </c>
       <c r="F35" s="29"/>
     </row>
-    <row r="36" spans="2:6">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="27">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -2844,7 +2844,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="2:6">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="27">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -2856,7 +2856,7 @@
       </c>
       <c r="F37" s="29"/>
     </row>
-    <row r="38" spans="2:6">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" s="27">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -2868,7 +2868,7 @@
       </c>
       <c r="F38" s="29"/>
     </row>
-    <row r="39" spans="2:6">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" s="27">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -2880,7 +2880,7 @@
       </c>
       <c r="F39" s="29"/>
     </row>
-    <row r="40" spans="2:6">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" s="27">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -2892,7 +2892,7 @@
       </c>
       <c r="F40" s="29"/>
     </row>
-    <row r="41" spans="2:6">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" s="27">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -2906,7 +2906,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="2:6">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" s="27">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -2920,7 +2920,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="43" spans="2:6">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" s="27">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -2934,7 +2934,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="2:6">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44" s="27">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2948,7 +2948,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="2:6">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45" s="27">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2962,7 +2962,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="2:6">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46" s="27">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -2976,7 +2976,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="2:6">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B47" s="27">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -2990,7 +2990,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="2:6">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B48" s="27">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -3004,7 +3004,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="2:6">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49" s="27">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -3016,7 +3016,7 @@
       </c>
       <c r="F49" s="29"/>
     </row>
-    <row r="50" spans="2:6">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50" s="27">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -3030,7 +3030,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="51" spans="2:6">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51" s="27">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -3044,7 +3044,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="2:6">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52" s="27">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -3058,7 +3058,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="53" spans="2:6">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53" s="27">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -3072,7 +3072,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="54" spans="2:6">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B54" s="27">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -3086,7 +3086,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="55" spans="2:6" ht="15" thickBot="1">
+    <row r="55" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B55" s="30">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -3114,9 +3114,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.625" customWidth="1"/>
     <col min="2" max="2" width="4.375" bestFit="1" customWidth="1"/>
@@ -3126,14 +3126,14 @@
     <col min="6" max="6" width="11.5" style="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>既払DB</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1"/>
-    <row r="3" spans="1:6" ht="15" thickBot="1">
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>26</v>
       </c>
@@ -3148,7 +3148,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" thickTop="1">
+    <row r="4" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <f>ROW()-3</f>
         <v>1</v>
@@ -3166,7 +3166,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="15">
         <f t="shared" ref="B5:B20" si="0">ROW()-3</f>
         <v>2</v>
@@ -3180,7 +3180,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="15">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -3194,7 +3194,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="15">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -3208,7 +3208,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="15">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -3222,7 +3222,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -3236,7 +3236,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="15">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3250,7 +3250,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="15">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3264,7 +3264,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="15">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -3278,7 +3278,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="15">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -3292,7 +3292,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="15">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -3306,7 +3306,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="15">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -3320,7 +3320,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" s="15">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -3334,7 +3334,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="2:6">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="15">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -3348,7 +3348,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="2:6">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="15">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3362,7 +3362,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="2:6">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="15">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -3376,7 +3376,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="15" thickBot="1">
+    <row r="20" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="34">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -3402,9 +3402,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.625" customWidth="1"/>
     <col min="2" max="2" width="4.375" bestFit="1" customWidth="1"/>
@@ -3414,14 +3414,14 @@
     <col min="6" max="6" width="11.5" style="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>施行DB</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1"/>
-    <row r="3" spans="1:6" ht="15" thickBot="1">
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>26</v>
       </c>
@@ -3436,7 +3436,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" thickTop="1">
+    <row r="4" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <f>ROW()-3</f>
         <v>1</v>
@@ -3452,7 +3452,7 @@
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" ht="15" thickBot="1">
+    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="30">
         <f>ROW()-3</f>
         <v>2</v>
@@ -3481,9 +3481,9 @@
   </sheetPr>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.625" customWidth="1"/>
     <col min="2" max="2" width="4.375" bestFit="1" customWidth="1"/>
@@ -3493,14 +3493,14 @@
     <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>立替払システム</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1"/>
-    <row r="3" spans="1:6" ht="15" thickBot="1">
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>26</v>
       </c>
@@ -3515,7 +3515,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" thickTop="1" thickBot="1">
+    <row r="4" spans="1:6" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3">
         <f>ROW()-3</f>
         <v>1</v>
@@ -3547,9 +3547,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.625" customWidth="1"/>
     <col min="2" max="2" width="4.375" bestFit="1" customWidth="1"/>
@@ -3559,14 +3559,14 @@
     <col min="6" max="6" width="11.5" style="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>償却資産</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1"/>
-    <row r="3" spans="1:6" ht="15" thickBot="1">
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>26</v>
       </c>
@@ -3581,7 +3581,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" thickTop="1">
+    <row r="4" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <f>ROW()-3</f>
         <v>1</v>
@@ -3599,7 +3599,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="27">
         <f t="shared" ref="B5:B41" si="0">ROW()-3</f>
         <v>2</v>
@@ -3613,7 +3613,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="27">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -3627,7 +3627,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="27">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -3641,7 +3641,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="27">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -3655,7 +3655,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="27">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -3669,7 +3669,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="27">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3681,7 +3681,7 @@
       </c>
       <c r="F10" s="29"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="27">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3695,7 +3695,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="27">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -3709,7 +3709,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="27">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -3723,7 +3723,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="27">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -3737,7 +3737,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="27">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -3751,7 +3751,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" s="27">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -3765,7 +3765,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="2:6">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="27">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -3779,7 +3779,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="2:6">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="27">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3793,7 +3793,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="2:6">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="27">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -3807,7 +3807,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="2:6">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="27">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -3821,7 +3821,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="2:6">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="27">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -3835,7 +3835,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="2:6">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="27">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -3849,7 +3849,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="2:6">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="27">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -3863,7 +3863,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="2:6">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="27">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -3877,7 +3877,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="2:6">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="27">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -3891,7 +3891,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="2:6">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="27">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -3905,7 +3905,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="2:6">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="27">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -3919,7 +3919,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="2:6">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="27">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -3933,7 +3933,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="2:6">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="27">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -3947,7 +3947,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="2:6">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="27">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -3961,7 +3961,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="2:6">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="27">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -3975,7 +3975,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="2:6">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="27">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -3989,7 +3989,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="2:6">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="27">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -4003,7 +4003,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="2:6">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="27">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -4015,7 +4015,7 @@
       </c>
       <c r="F34" s="29"/>
     </row>
-    <row r="35" spans="2:6">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="27">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -4029,7 +4029,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="2:6">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="27">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -4043,7 +4043,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="2:6">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="27">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -4057,7 +4057,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="2:6">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" s="27">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -4071,7 +4071,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="2:6">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" s="27">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -4085,7 +4085,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="2:6">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" s="27">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -4099,7 +4099,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="2:6" ht="15" thickBot="1">
+    <row r="41" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="30">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -4125,9 +4125,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.625" customWidth="1"/>
     <col min="2" max="2" width="4.375" bestFit="1" customWidth="1"/>
@@ -4137,14 +4137,14 @@
     <col min="6" max="6" width="11.5" style="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>経理DB</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1"/>
-    <row r="3" spans="1:6" ht="15" thickBot="1">
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>26</v>
       </c>
@@ -4159,7 +4159,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" thickTop="1">
+    <row r="4" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B4" s="23">
         <f>ROW()-3</f>
         <v>1</v>
@@ -4175,7 +4175,7 @@
       </c>
       <c r="F4" s="38"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="27">
         <f>ROW()-3</f>
         <v>2</v>
@@ -4187,7 +4187,7 @@
       </c>
       <c r="F5" s="29"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="27">
         <f t="shared" ref="B6:B14" si="0">ROW()-3</f>
         <v>3</v>
@@ -4199,7 +4199,7 @@
       </c>
       <c r="F6" s="29"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="27">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -4211,7 +4211,7 @@
       </c>
       <c r="F7" s="29"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="27">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -4223,7 +4223,7 @@
       </c>
       <c r="F8" s="29"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="27">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -4235,7 +4235,7 @@
       </c>
       <c r="F9" s="29"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="27">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -4247,7 +4247,7 @@
       </c>
       <c r="F10" s="29"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="27">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -4259,7 +4259,7 @@
       </c>
       <c r="F11" s="29"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="27">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4271,7 +4271,7 @@
       </c>
       <c r="F12" s="29"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="27">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -4283,7 +4283,7 @@
       </c>
       <c r="F13" s="29"/>
     </row>
-    <row r="14" spans="1:6" ht="15" thickBot="1">
+    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="30">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -4309,9 +4309,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.625" customWidth="1"/>
     <col min="2" max="2" width="4.375" bestFit="1" customWidth="1"/>
@@ -4321,14 +4321,14 @@
     <col min="6" max="6" width="11.5" style="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>外注check</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1"/>
-    <row r="3" spans="1:6" ht="15" thickBot="1">
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>26</v>
       </c>
@@ -4343,7 +4343,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" thickTop="1" thickBot="1">
+    <row r="4" spans="1:6" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3">
         <f>ROW()-3</f>
         <v>1</v>
@@ -4378,9 +4378,9 @@
   </sheetPr>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.625" customWidth="1"/>
     <col min="2" max="2" width="4.375" bestFit="1" customWidth="1"/>
@@ -4390,14 +4390,14 @@
     <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>伝票データバックアップ</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1"/>
-    <row r="3" spans="1:6" ht="15" thickBot="1">
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>26</v>
       </c>
@@ -4412,7 +4412,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" thickTop="1" thickBot="1">
+    <row r="4" spans="1:6" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3">
         <f>ROW()-3</f>
         <v>1</v>
@@ -4444,9 +4444,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.625" customWidth="1"/>
     <col min="2" max="2" width="4.375" bestFit="1" customWidth="1"/>
@@ -4456,14 +4456,14 @@
     <col min="6" max="6" width="11.5" style="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>銀行ダウンロード</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1"/>
-    <row r="3" spans="1:6" ht="15" thickBot="1">
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>26</v>
       </c>
@@ -4478,7 +4478,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" thickTop="1">
+    <row r="4" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <f>ROW()-3</f>
         <v>1</v>
@@ -4494,7 +4494,7 @@
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <f t="shared" ref="B5:B6" si="0">ROW()-3</f>
         <v>2</v>
@@ -4506,7 +4506,7 @@
       </c>
       <c r="F5" s="29"/>
     </row>
-    <row r="6" spans="1:6" ht="15" thickBot="1">
+    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="39">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -4532,9 +4532,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.625" customWidth="1"/>
     <col min="2" max="2" width="4.375" bestFit="1" customWidth="1"/>
@@ -4544,14 +4544,14 @@
     <col min="6" max="6" width="11.5" style="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>業番点検</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1"/>
-    <row r="3" spans="1:6" ht="15" thickBot="1">
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>26</v>
       </c>
@@ -4566,7 +4566,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" thickTop="1">
+    <row r="4" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <f>ROW()-3</f>
         <v>1</v>
@@ -4582,7 +4582,7 @@
       </c>
       <c r="F4" s="42"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="27">
         <f t="shared" ref="B5:B12" si="0">ROW()-3</f>
         <v>2</v>
@@ -4594,7 +4594,7 @@
       </c>
       <c r="F5" s="29"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="27">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -4606,7 +4606,7 @@
       </c>
       <c r="F6" s="29"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="27">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -4618,7 +4618,7 @@
       </c>
       <c r="F7" s="29"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="27">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -4630,7 +4630,7 @@
       </c>
       <c r="F8" s="29"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="27">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -4642,7 +4642,7 @@
       </c>
       <c r="F9" s="29"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="27">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -4654,7 +4654,7 @@
       </c>
       <c r="F10" s="29"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="27">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -4666,7 +4666,7 @@
       </c>
       <c r="F11" s="29"/>
     </row>
-    <row r="12" spans="1:6" ht="15" thickBot="1">
+    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="30">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4692,9 +4692,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.625" customWidth="1"/>
     <col min="2" max="2" width="4.375" bestFit="1" customWidth="1"/>
@@ -4704,14 +4704,14 @@
     <col min="6" max="6" width="11.5" style="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>月末集計</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1"/>
-    <row r="3" spans="1:6" ht="15" thickBot="1">
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>26</v>
       </c>
@@ -4726,7 +4726,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" thickTop="1">
+    <row r="4" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <f>ROW()-3</f>
         <v>1</v>
@@ -4744,7 +4744,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="27">
         <f t="shared" ref="B5:B40" si="0">ROW()-3</f>
         <v>2</v>
@@ -4758,7 +4758,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="27">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -4772,7 +4772,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="27">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -4784,7 +4784,7 @@
       </c>
       <c r="F7" s="29"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="27">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="F8" s="29"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="27">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -4810,7 +4810,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="27">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -4824,7 +4824,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="27">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -4838,7 +4838,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="27">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4852,7 +4852,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="27">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -4866,7 +4866,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="27">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -4880,7 +4880,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="27">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -4894,7 +4894,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" s="27">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -4908,7 +4908,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="2:6">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="27">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -4922,7 +4922,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="2:6">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="27">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -4936,7 +4936,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="2:6">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="27">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -4950,7 +4950,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="2:6">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="27">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -4962,7 +4962,7 @@
       </c>
       <c r="F20" s="29"/>
     </row>
-    <row r="21" spans="2:6">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="27">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -4976,7 +4976,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="2:6">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="27">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -4990,7 +4990,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="2:6">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="27">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -5004,7 +5004,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="2:6">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="27">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -5018,7 +5018,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="2:6">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="27">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -5032,7 +5032,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="2:6">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="27">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -5046,7 +5046,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="2:6">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="27">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -5060,7 +5060,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="2:6">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="27">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -5072,7 +5072,7 @@
       </c>
       <c r="F28" s="29"/>
     </row>
-    <row r="29" spans="2:6">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="27">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -5084,7 +5084,7 @@
       </c>
       <c r="F29" s="29"/>
     </row>
-    <row r="30" spans="2:6">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="27">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -5098,7 +5098,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="2:6">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="27">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -5112,7 +5112,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="2:6">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="27">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -5124,7 +5124,7 @@
       </c>
       <c r="F32" s="29"/>
     </row>
-    <row r="33" spans="2:6">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="27">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -5138,7 +5138,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="2:6">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="27">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -5150,7 +5150,7 @@
       </c>
       <c r="F34" s="29"/>
     </row>
-    <row r="35" spans="2:6">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="27">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -5162,7 +5162,7 @@
       </c>
       <c r="F35" s="29"/>
     </row>
-    <row r="36" spans="2:6">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="27">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -5176,7 +5176,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="2:6">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="27">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -5190,7 +5190,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="2:6">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" s="27">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -5204,7 +5204,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="2:6">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" s="27">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -5218,7 +5218,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="2:6" ht="15" thickBot="1">
+    <row r="40" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="30">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -5246,9 +5246,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.625" customWidth="1"/>
     <col min="2" max="2" width="4.375" bestFit="1" customWidth="1"/>
@@ -5258,14 +5258,14 @@
     <col min="6" max="6" width="11.5" style="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>施行情報システム</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1"/>
-    <row r="3" spans="1:6" ht="15" thickBot="1">
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>26</v>
       </c>
@@ -5280,7 +5280,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" thickTop="1">
+    <row r="4" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <f>ROW()-3</f>
         <v>1</v>
@@ -5298,7 +5298,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="15">
         <f t="shared" ref="B5:B47" si="0">ROW()-3</f>
         <v>2</v>
@@ -5312,7 +5312,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="15">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -5326,7 +5326,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="15">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -5340,7 +5340,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="15">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -5354,7 +5354,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -5366,7 +5366,7 @@
       </c>
       <c r="F9" s="19"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="15">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -5380,7 +5380,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="15">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -5394,7 +5394,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="15">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -5406,7 +5406,7 @@
       </c>
       <c r="F12" s="19"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="15">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -5420,7 +5420,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="15">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -5434,7 +5434,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="15">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -5448,7 +5448,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" s="15">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -5462,7 +5462,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="2:6">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="15">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -5476,7 +5476,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="2:6">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -5490,7 +5490,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="2:6">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="27">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -5504,7 +5504,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="2:6">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="27">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -5518,7 +5518,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="2:6">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="27">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -5532,7 +5532,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="2:6">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="27">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -5546,7 +5546,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="2:6">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="27">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -5560,7 +5560,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="2:6">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="27">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -5572,7 +5572,7 @@
       </c>
       <c r="F24" s="29"/>
     </row>
-    <row r="25" spans="2:6">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="27">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -5584,7 +5584,7 @@
       </c>
       <c r="F25" s="29"/>
     </row>
-    <row r="26" spans="2:6">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="27">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -5598,7 +5598,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="2:6">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="27">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -5612,7 +5612,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="2:6">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="27">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -5624,7 +5624,7 @@
       </c>
       <c r="F28" s="29"/>
     </row>
-    <row r="29" spans="2:6">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="27">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -5638,7 +5638,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="2:6">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="27">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -5652,7 +5652,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="2:6">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="27">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -5666,7 +5666,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="2:6">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="27">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -5680,7 +5680,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="2:6">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="27">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -5694,7 +5694,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="2:6">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="27">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -5708,7 +5708,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="2:6">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="27">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -5720,7 +5720,7 @@
       </c>
       <c r="F35" s="29"/>
     </row>
-    <row r="36" spans="2:6">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="27">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -5732,7 +5732,7 @@
       </c>
       <c r="F36" s="29"/>
     </row>
-    <row r="37" spans="2:6">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="27">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -5744,7 +5744,7 @@
       </c>
       <c r="F37" s="29"/>
     </row>
-    <row r="38" spans="2:6">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" s="27">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -5756,7 +5756,7 @@
       </c>
       <c r="F38" s="29"/>
     </row>
-    <row r="39" spans="2:6">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" s="27">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -5768,7 +5768,7 @@
       </c>
       <c r="F39" s="29"/>
     </row>
-    <row r="40" spans="2:6">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" s="27">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -5780,7 +5780,7 @@
       </c>
       <c r="F40" s="29"/>
     </row>
-    <row r="41" spans="2:6">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" s="27">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -5794,7 +5794,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="2:6">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" s="27">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -5808,7 +5808,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="43" spans="2:6">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" s="27">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -5820,7 +5820,7 @@
       </c>
       <c r="F43" s="29"/>
     </row>
-    <row r="44" spans="2:6">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44" s="27">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -5834,7 +5834,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="2:6">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45" s="27">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -5846,7 +5846,7 @@
       </c>
       <c r="F45" s="29"/>
     </row>
-    <row r="46" spans="2:6">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46" s="27">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -5858,7 +5858,7 @@
       </c>
       <c r="F46" s="29"/>
     </row>
-    <row r="47" spans="2:6" ht="15" thickBot="1">
+    <row r="47" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="30">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -5884,9 +5884,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.625" customWidth="1"/>
     <col min="2" max="2" width="4.375" bestFit="1" customWidth="1"/>
@@ -5896,14 +5896,14 @@
     <col min="6" max="6" width="11.5" style="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>伝票経理</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1"/>
-    <row r="3" spans="1:6" ht="15" thickBot="1">
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>26</v>
       </c>
@@ -5918,7 +5918,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" thickTop="1">
+    <row r="4" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <f>ROW()-3</f>
         <v>1</v>
@@ -5934,7 +5934,7 @@
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="27">
         <f t="shared" ref="B5:B29" si="0">ROW()-3</f>
         <v>2</v>
@@ -5948,7 +5948,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="27">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -5960,7 +5960,7 @@
       </c>
       <c r="F6" s="29"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="27">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -5974,7 +5974,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="27">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -5988,7 +5988,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="27">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -6000,7 +6000,7 @@
       </c>
       <c r="F9" s="29"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="27">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -6014,7 +6014,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="27">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -6026,7 +6026,7 @@
       </c>
       <c r="F11" s="29"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="27">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -6038,7 +6038,7 @@
       </c>
       <c r="F12" s="29"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="27">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -6050,7 +6050,7 @@
       </c>
       <c r="F13" s="29"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="27">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -6062,7 +6062,7 @@
       </c>
       <c r="F14" s="29"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="27">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -6076,7 +6076,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" s="27">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -6090,7 +6090,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="2:6">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="27">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -6104,7 +6104,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="2:6">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="27">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -6118,7 +6118,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="2:6">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="27">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -6132,7 +6132,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="2:6">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="27">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -6146,7 +6146,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="2:6">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="27">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -6160,7 +6160,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="2:6">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="27">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -6174,7 +6174,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="2:6">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="27">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -6188,7 +6188,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="2:6">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="27">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -6200,7 +6200,7 @@
       </c>
       <c r="F24" s="29"/>
     </row>
-    <row r="25" spans="2:6">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="27">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -6212,7 +6212,7 @@
       </c>
       <c r="F25" s="29"/>
     </row>
-    <row r="26" spans="2:6">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="27">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -6226,7 +6226,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="2:6">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="27">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -6240,7 +6240,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="2:6">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="27">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -6252,7 +6252,7 @@
       </c>
       <c r="F28" s="29"/>
     </row>
-    <row r="29" spans="2:6" ht="15" thickBot="1">
+    <row r="29" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="30">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -6278,9 +6278,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.625" customWidth="1"/>
     <col min="2" max="2" width="4.375" bestFit="1" customWidth="1"/>
@@ -6290,14 +6290,14 @@
     <col min="6" max="6" width="11.5" style="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>経理一覧</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1"/>
-    <row r="3" spans="1:6" ht="15" thickBot="1">
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>26</v>
       </c>
@@ -6312,7 +6312,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" thickTop="1">
+    <row r="4" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <f>ROW()-3</f>
         <v>1</v>
@@ -6330,7 +6330,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="27">
         <f t="shared" ref="B5:B26" si="0">ROW()-3</f>
         <v>2</v>
@@ -6344,7 +6344,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="27">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -6358,7 +6358,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="27">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -6372,7 +6372,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="27">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -6386,7 +6386,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="27">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -6400,7 +6400,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="27">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -6414,7 +6414,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="27">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -6428,7 +6428,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="27">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -6442,7 +6442,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="27">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -6456,7 +6456,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="27">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -6470,7 +6470,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="27">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -6484,7 +6484,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" s="27">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -6498,7 +6498,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="2:6">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="27">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -6512,7 +6512,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="2:6">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="27">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -6526,7 +6526,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="2:6">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="27">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -6540,7 +6540,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="2:6">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="27">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -6554,7 +6554,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="2:6">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="27">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -6568,7 +6568,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="2:6">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="27">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -6582,7 +6582,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="2:6">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="27">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -6596,7 +6596,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="2:6">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="27">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -6610,7 +6610,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="2:6">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="27">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -6624,7 +6624,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="2:6" ht="15" thickBot="1">
+    <row r="26" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="30">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -6652,9 +6652,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.625" customWidth="1"/>
     <col min="2" max="2" width="4.375" bestFit="1" customWidth="1"/>
@@ -6664,14 +6664,14 @@
     <col min="6" max="6" width="11.5" style="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>入金閲覧システム</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1"/>
-    <row r="3" spans="1:6" ht="15" thickBot="1">
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>26</v>
       </c>
@@ -6686,7 +6686,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" thickTop="1">
+    <row r="4" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <f>ROW()-3</f>
         <v>1</v>
@@ -6704,7 +6704,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="27">
         <f t="shared" ref="B5:B30" si="0">ROW()-3</f>
         <v>2</v>
@@ -6718,7 +6718,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="27">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -6732,7 +6732,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="27">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -6746,7 +6746,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="27">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -6760,7 +6760,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="27">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -6774,7 +6774,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="27">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -6788,7 +6788,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="27">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -6802,7 +6802,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="27">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -6816,7 +6816,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="27">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -6830,7 +6830,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="27">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -6844,7 +6844,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="27">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -6858,7 +6858,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" s="27">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -6872,7 +6872,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="2:6">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="27">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -6886,7 +6886,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="2:6">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="27">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -6900,7 +6900,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="2:6">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="27">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -6914,7 +6914,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="2:6">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="27">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -6928,7 +6928,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="2:6">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="27">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -6942,7 +6942,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="2:6">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="27">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -6956,7 +6956,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="2:6">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="27">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -6970,7 +6970,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="2:6">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="27">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -6984,7 +6984,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="2:6">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="27">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -6998,7 +6998,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="2:6">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="27">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -7012,7 +7012,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="2:6">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="27">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -7026,7 +7026,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="2:6">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="27">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -7040,7 +7040,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="2:6">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="27">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -7054,7 +7054,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="2:6" ht="15" thickBot="1">
+    <row r="30" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="30">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -7082,9 +7082,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.625" customWidth="1"/>
     <col min="2" max="2" width="4.375" bestFit="1" customWidth="1"/>
@@ -7094,14 +7094,14 @@
     <col min="6" max="6" width="11.5" style="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>既払閲覧システム</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1"/>
-    <row r="3" spans="1:6" ht="15" thickBot="1">
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>26</v>
       </c>
@@ -7116,7 +7116,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" thickTop="1">
+    <row r="4" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <f>ROW()-3</f>
         <v>1</v>
@@ -7134,7 +7134,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="27">
         <f t="shared" ref="B5:B25" si="0">ROW()-3</f>
         <v>2</v>
@@ -7148,7 +7148,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="27">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -7162,7 +7162,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="27">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -7176,7 +7176,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="27">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -7190,7 +7190,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="27">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -7204,7 +7204,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="27">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -7218,7 +7218,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="27">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -7232,7 +7232,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="27">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -7246,7 +7246,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="27">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -7260,7 +7260,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="27">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -7274,7 +7274,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="27">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -7288,7 +7288,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" s="27">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -7302,7 +7302,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="2:6">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="27">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -7316,7 +7316,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="2:6">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="27">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -7330,7 +7330,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="2:6">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="27">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -7344,7 +7344,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="2:6">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="27">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -7358,7 +7358,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="2:6">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="27">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -7372,7 +7372,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="2:6">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="27">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -7386,7 +7386,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="2:6">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="27">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -7400,7 +7400,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="2:6">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="27">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -7414,7 +7414,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="15" thickBot="1">
+    <row r="25" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="30">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -7442,9 +7442,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.625" customWidth="1"/>
     <col min="2" max="2" width="4.375" bestFit="1" customWidth="1"/>
@@ -7454,14 +7454,14 @@
     <col min="6" max="6" width="11.5" style="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>設備閲覧システム</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1"/>
-    <row r="3" spans="1:6" ht="15" thickBot="1">
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>26</v>
       </c>
@@ -7476,7 +7476,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" thickTop="1">
+    <row r="4" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <f>ROW()-3</f>
         <v>1</v>
@@ -7494,7 +7494,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="27">
         <f t="shared" ref="B5:B16" si="0">ROW()-3</f>
         <v>2</v>
@@ -7508,7 +7508,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="27">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -7522,7 +7522,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="27">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -7536,7 +7536,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="27">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -7550,7 +7550,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="27">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -7564,7 +7564,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="27">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -7578,7 +7578,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="27">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -7592,7 +7592,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="27">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -7606,7 +7606,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="27">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -7620,7 +7620,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="27">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -7634,7 +7634,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="27">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -7648,7 +7648,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" thickBot="1">
+    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="30">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -7676,9 +7676,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A12" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.625" customWidth="1"/>
     <col min="2" max="2" width="4.375" bestFit="1" customWidth="1"/>
@@ -7688,14 +7688,14 @@
     <col min="6" max="6" width="11.5" style="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>伝票入力システム</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1"/>
-    <row r="3" spans="1:6" ht="15" thickBot="1">
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>26</v>
       </c>
@@ -7710,7 +7710,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" thickTop="1">
+    <row r="4" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <f>ROW()-3</f>
         <v>1</v>
@@ -7728,7 +7728,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="27">
         <f t="shared" ref="B5:B68" si="0">ROW()-3</f>
         <v>2</v>
@@ -7742,7 +7742,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="27">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -7756,7 +7756,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="27">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -7770,7 +7770,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="27">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -7784,7 +7784,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="27">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -7798,7 +7798,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="27">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -7812,7 +7812,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="27">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -7826,7 +7826,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="27">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -7840,7 +7840,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="27">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -7854,7 +7854,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="27">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -7868,7 +7868,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="27">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -7882,7 +7882,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" s="27">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -7896,7 +7896,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="2:6">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="27">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -7910,7 +7910,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="2:6">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="27">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -7924,7 +7924,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="2:6">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="27">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -7938,7 +7938,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="2:6">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="27">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -7950,7 +7950,7 @@
       </c>
       <c r="F20" s="29"/>
     </row>
-    <row r="21" spans="2:6">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="27">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -7964,7 +7964,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="2:6">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="27">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -7978,7 +7978,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="2:6">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="27">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -7992,7 +7992,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="2:6">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="27">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -8006,7 +8006,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="2:6">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="27">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -8018,7 +8018,7 @@
       </c>
       <c r="F25" s="29"/>
     </row>
-    <row r="26" spans="2:6">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="27">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -8032,7 +8032,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="2:6">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="27">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -8046,7 +8046,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="2:6">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="27">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -8060,7 +8060,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="2:6">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="27">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -8074,7 +8074,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="2:6">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="27">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -8088,7 +8088,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="2:6">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="27">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -8102,7 +8102,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="2:6">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="27">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -8116,7 +8116,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="2:6">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="27">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -8130,7 +8130,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="2:6">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="27">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -8144,7 +8144,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="2:6">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="27">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -8158,7 +8158,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="2:6">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="27">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -8172,7 +8172,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="2:6">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="27">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -8186,7 +8186,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="2:6">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" s="27">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -8200,7 +8200,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="2:6">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" s="27">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -8214,7 +8214,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="2:6">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" s="27">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -8228,7 +8228,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="2:6">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" s="27">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -8242,7 +8242,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="2:6">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" s="27">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -8256,7 +8256,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="43" spans="2:6">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" s="27">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -8270,7 +8270,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="2:6">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44" s="27">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -8284,7 +8284,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="2:6">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45" s="27">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -8298,7 +8298,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="2:6">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46" s="27">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -8312,7 +8312,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="2:6">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B47" s="27">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -8326,7 +8326,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="2:6">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B48" s="27">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -8340,7 +8340,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="2:6">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49" s="27">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -8354,7 +8354,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="2:6">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50" s="27">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -8368,7 +8368,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="51" spans="2:6">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51" s="27">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -8382,7 +8382,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="2:6">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52" s="27">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -8396,7 +8396,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="53" spans="2:6">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53" s="27">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -8410,7 +8410,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="54" spans="2:6">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B54" s="27">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -8424,7 +8424,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="55" spans="2:6">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B55" s="27">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -8438,7 +8438,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="56" spans="2:6">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B56" s="27">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -8452,7 +8452,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="57" spans="2:6">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B57" s="27">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -8466,7 +8466,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="58" spans="2:6">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B58" s="27">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -8480,7 +8480,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="59" spans="2:6">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B59" s="27">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -8494,7 +8494,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="60" spans="2:6">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B60" s="27">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -8508,7 +8508,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="61" spans="2:6">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B61" s="27">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -8522,7 +8522,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="62" spans="2:6">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B62" s="27">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -8536,7 +8536,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="63" spans="2:6">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B63" s="27">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -8550,7 +8550,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="64" spans="2:6">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B64" s="27">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -8564,7 +8564,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="65" spans="2:6">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B65" s="27">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -8578,7 +8578,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="66" spans="2:6">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B66" s="27">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -8592,7 +8592,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="67" spans="2:6">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B67" s="27">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -8606,7 +8606,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="68" spans="2:6">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B68" s="27">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -8620,7 +8620,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="69" spans="2:6">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B69" s="27">
         <f t="shared" ref="B69:B70" si="1">ROW()-3</f>
         <v>66</v>
@@ -8634,7 +8634,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="70" spans="2:6" ht="15" thickBot="1">
+    <row r="70" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B70" s="30">
         <f t="shared" si="1"/>
         <v>67</v>
@@ -8665,9 +8665,9 @@
   </sheetPr>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.625" customWidth="1"/>
     <col min="2" max="2" width="4.375" bestFit="1" customWidth="1"/>
@@ -8677,14 +8677,14 @@
     <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>取引先一覧</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1"/>
-    <row r="3" spans="1:6" ht="15" thickBot="1">
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>26</v>
       </c>
@@ -8699,7 +8699,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" thickTop="1" thickBot="1">
+    <row r="4" spans="1:6" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3">
         <f>ROW()-3</f>
         <v>1</v>
@@ -8731,9 +8731,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.625" customWidth="1"/>
     <col min="2" max="2" width="4.375" bestFit="1" customWidth="1"/>
@@ -8743,14 +8743,14 @@
     <col min="6" max="6" width="11.5" style="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>伝票同期</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1"/>
-    <row r="3" spans="1:6" ht="15" thickBot="1">
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>26</v>
       </c>
@@ -8765,7 +8765,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" thickTop="1">
+    <row r="4" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <f>ROW()-3</f>
         <v>1</v>
@@ -8783,7 +8783,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" thickBot="1">
+    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="30">
         <f>ROW()-3</f>
         <v>2</v>
@@ -8811,9 +8811,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.625" customWidth="1"/>
     <col min="2" max="2" width="4.375" bestFit="1" customWidth="1"/>
@@ -8823,14 +8823,14 @@
     <col min="6" max="6" width="11.5" style="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>月報DB</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1"/>
-    <row r="3" spans="1:6" ht="15" thickBot="1">
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>26</v>
       </c>
@@ -8845,7 +8845,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" thickTop="1">
+    <row r="4" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <f>ROW()-3</f>
         <v>1</v>
@@ -8863,7 +8863,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="27">
         <f t="shared" ref="B5:B18" si="0">ROW()-3</f>
         <v>2</v>
@@ -8877,7 +8877,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="27">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -8891,7 +8891,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="27">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -8905,7 +8905,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="27">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -8919,7 +8919,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="27">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -8933,7 +8933,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="27">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -8947,7 +8947,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="27">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -8961,7 +8961,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="27">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -8975,7 +8975,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="27">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -8989,7 +8989,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="27">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -9003,7 +9003,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="27">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -9017,7 +9017,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" s="27">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -9031,7 +9031,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="2:6">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="27">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -9045,7 +9045,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="15" thickBot="1">
+    <row r="18" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="30">
         <f t="shared" si="0"/>
         <v>15</v>
